--- a/HT36C/Tables/Table 9.xlsx
+++ b/HT36C/Tables/Table 9.xlsx
@@ -74,7 +74,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -128,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -146,19 +146,10 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -450,10 +441,10 @@
       <c r="E2" s="8">
         <v>49.9</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>38.3</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>41.9</v>
       </c>
       <c r="H2" s="8">
@@ -462,16 +453,16 @@
       <c r="I2" s="8">
         <v>1652.17391</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="8">
         <v>0.68941012</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="8">
         <v>14.1240167</v>
       </c>
       <c r="L2" s="8">
         <v>1584.72435</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="8">
         <v>30.5403408</v>
       </c>
       <c r="N2" s="4"/>
@@ -504,10 +495,10 @@
       <c r="E3" s="8">
         <v>53.2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>38.0</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>41.6</v>
       </c>
       <c r="H3" s="8">
@@ -516,16 +507,16 @@
       <c r="I3" s="8">
         <v>1597.10145</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="8">
         <v>0.61414117</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="8">
         <v>15.0390515</v>
       </c>
       <c r="L3" s="8">
         <v>1438.6934</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="8">
         <v>21.0581828</v>
       </c>
       <c r="N3" s="4"/>
@@ -558,10 +549,10 @@
       <c r="E4" s="8">
         <v>59.8</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>33.9</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>37.9</v>
       </c>
       <c r="H4" s="8">
@@ -570,16 +561,16 @@
       <c r="I4" s="8">
         <v>1507.6087</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="8">
         <v>0.47096774</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="8">
         <v>17.3246081</v>
       </c>
       <c r="L4" s="8">
         <v>1178.91206</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="8">
         <v>15.3127313</v>
       </c>
       <c r="N4" s="4"/>
@@ -612,10 +603,10 @@
       <c r="E5" s="8">
         <v>68.0</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>29.8</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>34.8</v>
       </c>
       <c r="H5" s="8">
@@ -624,16 +615,16 @@
       <c r="I5" s="8">
         <v>1165.6087</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="8">
         <v>0.60805861</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="8">
         <v>20.7479644</v>
       </c>
       <c r="L5" s="8">
         <v>761.085555</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="8">
         <v>15.5610367</v>
       </c>
       <c r="N5" s="4"/>
